--- a/高松/ドキュメント/takamatu_designer_calendar.xlsx
+++ b/高松/ドキュメント/takamatu_designer_calendar.xlsx
@@ -733,7 +733,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="230" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1127,13 +1127,13 @@
       <c r="K14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="9"/>
